--- a/koruza-compute-module-board/OUTPUT_FILES/Koruza_V1.3_BOM/Koruza_V1.3_BOM.xlsx
+++ b/koruza-compute-module-board/OUTPUT_FILES/Koruza_V1.3_BOM/Koruza_V1.3_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synology Drive\IRNAS-Projects\KORUZA\KORUZA-Electronics\04_OUTPUT_FILES\Koruza_V1.3_BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synology Drive\IRNAS-Projects\KORUZA\KORUZA-Electronics\koruza-compute-module-board\OUTPUT_FILES\Koruza_V1.3_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="304">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -451,18 +451,12 @@
     <t>MOSFET MOSFET N-CHANNEL SOT-523</t>
   </si>
   <si>
-    <t>USB 2.0 A Dual Port RA TH, PN0205</t>
-  </si>
-  <si>
     <t>Headers &amp; Wire Housings 2P VERT HDR</t>
   </si>
   <si>
     <t>Translating Switch, Bidirectional, 4 Inputs, 2.3V to 5.5V Supply, 25mA Out, 0.3ns Delay, HVQFN-16</t>
   </si>
   <si>
-    <t>Header, 3-Pin</t>
-  </si>
-  <si>
     <t>CONN JUMPER SHORTING .100" GOLD</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>DIOM4326X24N_1</t>
   </si>
   <si>
-    <t>DUAL_USB_CONN</t>
-  </si>
-  <si>
     <t>Hdr1x2_2.54mm</t>
   </si>
   <si>
@@ -595,9 +586,6 @@
     <t>INDP4040X18N</t>
   </si>
   <si>
-    <t>JST1X3_2.54MM</t>
-  </si>
-  <si>
     <t>JUMPER</t>
   </si>
   <si>
@@ -661,9 +649,6 @@
     <t>T1</t>
   </si>
   <si>
-    <t>CON9</t>
-  </si>
-  <si>
     <t>CON4</t>
   </si>
   <si>
@@ -736,9 +721,6 @@
     <t>Q1, Q2, Q3, Q4, Q5</t>
   </si>
   <si>
-    <t>CON6, CON7</t>
-  </si>
-  <si>
     <t>CON8</t>
   </si>
   <si>
@@ -748,9 +730,6 @@
     <t>L1, L2</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>LINK1</t>
   </si>
   <si>
@@ -883,15 +862,6 @@
     <t>530-0826-1L1T-57-F</t>
   </si>
   <si>
-    <t>2362099RL</t>
-  </si>
-  <si>
-    <t>2210948RL</t>
-  </si>
-  <si>
-    <t>2676444RL</t>
-  </si>
-  <si>
     <t>621-DMG1012T-7</t>
   </si>
   <si>
@@ -944,6 +914,24 @@
   </si>
   <si>
     <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>KLZ2012AHR1R0WTD25</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>PCA9546ABS,118</t>
+  </si>
+  <si>
+    <t>SRN4018-4R7M.</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>INDUCTOR, SEMI-SHIELDED, 4.7uH, 1.9A, 20%, SMD</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1080,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1117,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1594,7 +1594,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1809,6 +1809,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1821,40 +1876,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2421,6 +2442,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2772,10 +2796,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2798,7 +2822,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="30"/>
       <c r="C1" s="31"/>
@@ -2815,7 +2839,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33" t="s">
@@ -2823,7 +2847,7 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="68" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="35"/>
@@ -2836,13 +2860,13 @@
       <c r="N2" s="35"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="9"/>
@@ -2859,13 +2883,13 @@
       <c r="N3" s="18"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="36"/>
@@ -2880,13 +2904,13 @@
       <c r="N4" s="18"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="71" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="38"/>
@@ -2903,7 +2927,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2920,16 +2944,16 @@
       <c r="N6" s="18"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="72" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="18"/>
@@ -2945,7 +2969,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
@@ -2953,11 +2977,11 @@
       </c>
       <c r="D8" s="11">
         <f ca="1">TODAY()</f>
-        <v>44299</v>
+        <v>44342</v>
       </c>
       <c r="E8" s="12">
         <f ca="1">NOW()</f>
-        <v>44299.373531249999</v>
+        <v>44342.316353009257</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="40"/>
@@ -2970,7 +2994,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="1:15" s="48" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="48" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="43" t="s">
         <v>22</v>
@@ -2985,40 +3009,40 @@
         <v>118</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="49">
-        <f>ROW(B10) - ROW($B$9)</f>
+        <f t="shared" ref="B10:B41" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
       <c r="C10" s="50" t="s">
@@ -3032,13 +3056,13 @@
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H10" s="51">
         <v>1</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J10" s="51">
         <v>2427122</v>
@@ -3048,11 +3072,15 @@
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
       <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="54" t="str">
+        <f>J10&amp;","&amp;H10*40&amp;",Koruza,Koruza"</f>
+        <v>2427122,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="55">
-        <f>ROW(B11) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C11" s="56" t="s">
@@ -3068,16 +3096,16 @@
         <v>38</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H11" s="56">
         <v>1</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
@@ -3085,10 +3113,10 @@
       <c r="N11" s="58"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="49">
-        <f>ROW(B12) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="50" t="s">
@@ -3104,16 +3132,16 @@
         <v>39</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H12" s="51">
         <v>1</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
@@ -3121,24 +3149,18 @@
       <c r="N12" s="53"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="55">
-        <f>ROW(B13) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
-      <c r="F13" s="56">
-        <v>10118193</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="56">
-        <v>1</v>
-      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="57"/>
@@ -3147,10 +3169,10 @@
       <c r="N13" s="58"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="49">
-        <f>ROW(B14) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="50" t="s">
@@ -3163,16 +3185,16 @@
         <v>122</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H14" s="51">
         <v>1</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J14" s="51">
         <v>1098611</v>
@@ -3182,29 +3204,37 @@
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
       <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="54" t="str">
+        <f t="shared" ref="P14:P73" si="1">J14&amp;","&amp;H14*40&amp;",Koruza,Koruza"</f>
+        <v>1098611,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="55">
-        <f>ROW(B15) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>299</v>
+      </c>
       <c r="E15" s="56" t="s">
         <v>123</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H15" s="56">
         <v>2</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J15" s="56">
         <v>1679129</v>
@@ -3214,11 +3244,15 @@
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1679129,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="49">
-        <f>ROW(B16) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -3231,16 +3265,16 @@
         <v>124</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H16" s="51">
         <v>1</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J16" s="51">
         <v>1095877</v>
@@ -3250,11 +3284,15 @@
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1095877,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="55">
-        <f>ROW(B17) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="56" t="s">
@@ -3267,16 +3305,16 @@
         <v>125</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H17" s="56">
         <v>2</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J17" s="56">
         <v>1515716</v>
@@ -3286,11 +3324,15 @@
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1515716,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="49">
-        <f>ROW(B18) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="50" t="s">
@@ -3303,30 +3345,34 @@
         <v>126</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H18" s="51">
         <v>3</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="J18" s="51">
+        <v>2362099</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
       <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2362099,120,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="55">
-        <f>ROW(B19) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="56" t="s">
@@ -3339,16 +3385,16 @@
         <v>127</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H19" s="56">
         <v>6</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J19" s="56">
         <v>2426958</v>
@@ -3358,11 +3404,15 @@
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
       <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2426958,240,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="49">
-        <f>ROW(B20) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -3375,16 +3425,16 @@
         <v>128</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H20" s="51">
         <v>3</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J20" s="51">
         <v>2611924</v>
@@ -3394,11 +3444,15 @@
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
       <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2611924,120,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="55">
-        <f>ROW(B21) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -3411,16 +3465,16 @@
         <v>129</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H21" s="56">
         <v>1</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J21" s="56">
         <v>1845736</v>
@@ -3430,11 +3484,15 @@
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="23"/>
-    </row>
-    <row r="22" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1845736,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="49">
-        <f>ROW(B22) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="50" t="s">
@@ -3447,16 +3505,16 @@
         <v>130</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H22" s="51">
         <v>35</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J22" s="51">
         <v>2688519</v>
@@ -3466,11 +3524,15 @@
       <c r="M22" s="53"/>
       <c r="N22" s="53"/>
       <c r="O22" s="22"/>
-    </row>
-    <row r="23" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2688519,1400,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="55">
-        <f>ROW(B23) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="56" t="s">
@@ -3483,16 +3545,16 @@
         <v>130</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H23" s="56">
         <v>1</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J23" s="56">
         <v>2688519</v>
@@ -3502,11 +3564,15 @@
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
       <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2688519,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="49">
-        <f>ROW(B24) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3519,16 +3585,16 @@
         <v>131</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H24" s="51">
         <v>4</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J24" s="51">
         <v>2456108</v>
@@ -3538,11 +3604,15 @@
       <c r="M24" s="53"/>
       <c r="N24" s="53"/>
       <c r="O24" s="22"/>
-    </row>
-    <row r="25" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2456108,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="55">
-        <f>ROW(B25) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="56" t="s">
@@ -3555,16 +3625,16 @@
         <v>132</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H25" s="56">
         <v>2</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J25" s="56">
         <v>1828910</v>
@@ -3574,11 +3644,15 @@
       <c r="M25" s="58"/>
       <c r="N25" s="58"/>
       <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1828910,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="49">
-        <f>ROW(B26) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C26" s="50" t="s">
@@ -3591,16 +3665,16 @@
         <v>133</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H26" s="51">
         <v>4</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J26" s="51">
         <v>2611939</v>
@@ -3610,11 +3684,15 @@
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
       <c r="O26" s="22"/>
-    </row>
-    <row r="27" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2611939,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="55">
-        <f>ROW(B27) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C27" s="56" t="s">
@@ -3627,16 +3705,16 @@
         <v>133</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H27" s="56">
         <v>3</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J27" s="56">
         <v>2611939</v>
@@ -3646,11 +3724,15 @@
       <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2611939,120,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="49">
-        <f>ROW(B28) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C28" s="50" t="s">
@@ -3663,16 +3745,16 @@
         <v>134</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H28" s="51">
         <v>1</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J28" s="51">
         <v>9527710</v>
@@ -3682,11 +3764,15 @@
       <c r="M28" s="53"/>
       <c r="N28" s="53"/>
       <c r="O28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9527710,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="55">
-        <f>ROW(B29) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -3699,30 +3785,34 @@
         <v>135</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H29" s="56">
         <v>5</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="J29" s="56" t="s">
-        <v>288</v>
+        <v>274</v>
+      </c>
+      <c r="J29" s="56">
+        <v>2210948</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
       <c r="O29" s="23"/>
-    </row>
-    <row r="30" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2210948,200,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="49">
-        <f>ROW(B30) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C30" s="50" t="s">
@@ -3735,16 +3825,16 @@
         <v>136</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H30" s="51">
         <v>1</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J30" s="51">
         <v>1669740</v>
@@ -3754,15 +3844,19 @@
       <c r="M30" s="53"/>
       <c r="N30" s="53"/>
       <c r="O30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1669740,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="55">
-        <f>ROW(B31) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C31" s="56">
-        <v>74479773210</v>
+      <c r="C31" s="56" t="s">
+        <v>298</v>
       </c>
       <c r="D31" s="56" t="s">
         <v>98</v>
@@ -3771,30 +3865,34 @@
         <v>137</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H31" s="56">
         <v>4</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J31" s="56">
-        <v>2400015</v>
+        <v>3489650</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
       <c r="M31" s="58"/>
       <c r="N31" s="58"/>
       <c r="O31" s="23"/>
-    </row>
-    <row r="32" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>3489650,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="49">
-        <f>ROW(B32) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C32" s="50" t="s">
@@ -3807,30 +3905,34 @@
         <v>138</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G32" s="51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H32" s="51">
         <v>1</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>289</v>
+        <v>274</v>
+      </c>
+      <c r="J32" s="51">
+        <v>2676444</v>
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
       <c r="O32" s="22"/>
-    </row>
-    <row r="33" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2676444,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="55">
-        <f>ROW(B33) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C33" s="56" t="s">
@@ -3843,16 +3945,16 @@
         <v>139</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H33" s="56">
         <v>4</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J33" s="56">
         <v>1845762</v>
@@ -3862,11 +3964,15 @@
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
       <c r="O33" s="23"/>
-    </row>
-    <row r="34" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1845762,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="49">
-        <f>ROW(B34) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C34" s="50" t="s">
@@ -3879,16 +3985,16 @@
         <v>139</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H34" s="51">
         <v>1</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J34" s="51">
         <v>1845762</v>
@@ -3898,11 +4004,15 @@
       <c r="M34" s="53"/>
       <c r="N34" s="53"/>
       <c r="O34" s="22"/>
-    </row>
-    <row r="35" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1845762,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="55">
-        <f>ROW(B35) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C35" s="56" t="s">
@@ -3915,16 +4025,16 @@
         <v>140</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G35" s="56" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H35" s="56">
         <v>1</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J35" s="56">
         <v>2470131</v>
@@ -3934,11 +4044,15 @@
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
       <c r="O35" s="23"/>
-    </row>
-    <row r="36" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2470131,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="49">
-        <f>ROW(B36) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C36" s="50" t="s">
@@ -3951,16 +4065,16 @@
         <v>141</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H36" s="51">
         <v>2</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J36" s="51">
         <v>1459137</v>
@@ -3970,11 +4084,15 @@
       <c r="M36" s="53"/>
       <c r="N36" s="53"/>
       <c r="O36" s="22"/>
-    </row>
-    <row r="37" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1459137,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="55">
-        <f>ROW(B37) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C37" s="56" t="s">
@@ -3990,16 +4108,16 @@
         <v>58</v>
       </c>
       <c r="G37" s="56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H37" s="56">
         <v>5</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J37" s="56" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
@@ -4007,26 +4125,18 @@
       <c r="N37" s="58"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" s="49">
-        <f>ROW(B38) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
-      <c r="E38" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="H38" s="51">
-        <v>2</v>
-      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
       <c r="K38" s="52"/>
@@ -4035,10 +4145,10 @@
       <c r="N38" s="53"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="55">
-        <f>ROW(B39) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C39" s="56" t="s">
@@ -4048,19 +4158,19 @@
         <v>103</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G39" s="56" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H39" s="56">
         <v>1</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
@@ -4069,30 +4179,32 @@
       <c r="N39" s="58"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="49">
-        <f>ROW(B40) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="50" t="s">
+        <v>300</v>
+      </c>
       <c r="D40" s="50" t="s">
         <v>104</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H40" s="51">
         <v>1</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J40" s="51">
         <v>2775989</v>
@@ -4102,27 +4214,37 @@
       <c r="M40" s="53"/>
       <c r="N40" s="53"/>
       <c r="O40" s="22"/>
-    </row>
-    <row r="41" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P40" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2775989,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="55">
-        <f>ROW(B41) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
+      <c r="C41" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>303</v>
+      </c>
       <c r="F41" s="56" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G41" s="56" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H41" s="56">
         <v>2</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J41" s="56">
         <v>2408944</v>
@@ -4132,27 +4254,23 @@
       <c r="M41" s="58"/>
       <c r="N41" s="58"/>
       <c r="O41" s="23"/>
-    </row>
-    <row r="42" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2408944,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="49">
-        <f>ROW(B42) - ROW($B$9)</f>
+        <f t="shared" ref="B42:B78" si="2">ROW(B42) - ROW($B$9)</f>
         <v>33</v>
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
-      <c r="E42" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="H42" s="51">
-        <v>1</v>
-      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
@@ -4161,10 +4279,10 @@
       <c r="N42" s="53"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="55">
-        <f>ROW(B43) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="C43" s="56" t="s">
@@ -4174,22 +4292,22 @@
         <v>105</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G43" s="56" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H43" s="56">
         <v>1</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J43" s="56" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
@@ -4197,10 +4315,10 @@
       <c r="N43" s="58"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="49">
-        <f>ROW(B44) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C44" s="50" t="s">
@@ -4210,19 +4328,19 @@
         <v>106</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G44" s="51" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H44" s="51">
         <v>4</v>
       </c>
       <c r="I44" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J44" s="51">
         <v>2497356</v>
@@ -4232,11 +4350,15 @@
       <c r="M44" s="53"/>
       <c r="N44" s="53"/>
       <c r="O44" s="22"/>
-    </row>
-    <row r="45" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P44" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2497356,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="55">
-        <f>ROW(B45) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C45" s="56">
@@ -4246,22 +4368,22 @@
         <v>107</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F45" s="56" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G45" s="56" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H45" s="56">
         <v>1</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J45" s="56" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
@@ -4269,10 +4391,10 @@
       <c r="N45" s="58"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
       <c r="B46" s="49">
-        <f>ROW(B46) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="C46" s="50" t="s">
@@ -4282,19 +4404,19 @@
         <v>95</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H46" s="51">
         <v>1</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J46" s="51">
         <v>2452479</v>
@@ -4304,47 +4426,52 @@
       <c r="M46" s="53"/>
       <c r="N46" s="53"/>
       <c r="O46" s="22"/>
-    </row>
-    <row r="47" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2452479,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
-      <c r="B47" s="55">
-        <f>ROW(B47) - ROW($B$9)</f>
+      <c r="B47" s="79">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="H47" s="56">
+      <c r="E47" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="80">
         <v>1</v>
       </c>
-      <c r="I47" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="J47" s="56">
+      <c r="I47" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="80">
         <v>2564479</v>
       </c>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="23"/>
-    </row>
-    <row r="48" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="83"/>
+      <c r="Q47" s="84"/>
+    </row>
+    <row r="48" spans="1:17" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
       <c r="B48" s="49">
-        <f>ROW(B48) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C48" s="50" t="s">
@@ -4354,19 +4481,19 @@
         <v>94</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G48" s="51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H48" s="51">
         <v>1</v>
       </c>
       <c r="I48" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J48" s="51">
         <v>1755779</v>
@@ -4376,11 +4503,15 @@
       <c r="M48" s="53"/>
       <c r="N48" s="53"/>
       <c r="O48" s="22"/>
-    </row>
-    <row r="49" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1755779,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" s="55">
-        <f>ROW(B49) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="C49" s="56" t="s">
@@ -4390,19 +4521,19 @@
         <v>109</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F49" s="56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G49" s="56" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H49" s="56">
         <v>1</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J49" s="56">
         <v>2292587</v>
@@ -4412,11 +4543,15 @@
       <c r="M49" s="58"/>
       <c r="N49" s="58"/>
       <c r="O49" s="23"/>
-    </row>
-    <row r="50" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P49" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2292587,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="49">
-        <f>ROW(B50) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="C50" s="50" t="s">
@@ -4426,19 +4561,19 @@
         <v>110</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H50" s="51">
         <v>4</v>
       </c>
       <c r="I50" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J50" s="51">
         <v>2008343</v>
@@ -4448,11 +4583,15 @@
       <c r="M50" s="53"/>
       <c r="N50" s="53"/>
       <c r="O50" s="22"/>
-    </row>
-    <row r="51" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2008343,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32"/>
       <c r="B51" s="55">
-        <f>ROW(B51) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="C51" s="56" t="s">
@@ -4462,19 +4601,19 @@
         <v>110</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F51" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G51" s="56" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H51" s="56">
         <v>11</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J51" s="56">
         <v>2008343</v>
@@ -4484,11 +4623,15 @@
       <c r="M51" s="58"/>
       <c r="N51" s="58"/>
       <c r="O51" s="23"/>
-    </row>
-    <row r="52" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2008343,440,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" s="49">
-        <f>ROW(B52) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C52" s="50" t="s">
@@ -4498,19 +4641,19 @@
         <v>111</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H52" s="51">
         <v>1</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J52" s="51">
         <v>9330410</v>
@@ -4520,11 +4663,15 @@
       <c r="M52" s="53"/>
       <c r="N52" s="53"/>
       <c r="O52" s="22"/>
-    </row>
-    <row r="53" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P52" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9330410,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
       <c r="B53" s="55">
-        <f>ROW(B53) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="C53" s="56" t="s">
@@ -4534,19 +4681,19 @@
         <v>111</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F53" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G53" s="56" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H53" s="56">
         <v>1</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J53" s="56">
         <v>9330410</v>
@@ -4556,11 +4703,15 @@
       <c r="M53" s="58"/>
       <c r="N53" s="58"/>
       <c r="O53" s="23"/>
-    </row>
-    <row r="54" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9330410,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
       <c r="B54" s="49">
-        <f>ROW(B54) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C54" s="50" t="s">
@@ -4570,19 +4721,19 @@
         <v>111</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H54" s="51">
         <v>1</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J54" s="51">
         <v>1170897</v>
@@ -4592,11 +4743,15 @@
       <c r="M54" s="53"/>
       <c r="N54" s="53"/>
       <c r="O54" s="22"/>
-    </row>
-    <row r="55" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P54" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1170897,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="55">
-        <f>ROW(B55) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="C55" s="56" t="s">
@@ -4606,19 +4761,19 @@
         <v>111</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F55" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G55" s="56" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H55" s="56">
         <v>1</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J55" s="56">
         <v>2130943</v>
@@ -4628,11 +4783,15 @@
       <c r="M55" s="58"/>
       <c r="N55" s="58"/>
       <c r="O55" s="23"/>
-    </row>
-    <row r="56" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P55" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2130943,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
       <c r="B56" s="49">
-        <f>ROW(B56) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C56" s="50" t="s">
@@ -4642,19 +4801,19 @@
         <v>111</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H56" s="51">
         <v>2</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J56" s="51">
         <v>2073354</v>
@@ -4664,11 +4823,15 @@
       <c r="M56" s="53"/>
       <c r="N56" s="53"/>
       <c r="O56" s="22"/>
-    </row>
-    <row r="57" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P56" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073354,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
       <c r="B57" s="55">
-        <f>ROW(B57) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C57" s="56" t="s">
@@ -4678,19 +4841,19 @@
         <v>111</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F57" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G57" s="56" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H57" s="56">
         <v>9</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J57" s="56">
         <v>2073356</v>
@@ -4700,11 +4863,15 @@
       <c r="M57" s="58"/>
       <c r="N57" s="58"/>
       <c r="O57" s="23"/>
-    </row>
-    <row r="58" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073356,360,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
       <c r="B58" s="49">
-        <f>ROW(B58) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C58" s="50" t="s">
@@ -4714,19 +4881,19 @@
         <v>111</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G58" s="51" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H58" s="51">
         <v>7</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J58" s="51">
         <v>2073356</v>
@@ -4736,11 +4903,15 @@
       <c r="M58" s="53"/>
       <c r="N58" s="53"/>
       <c r="O58" s="22"/>
-    </row>
-    <row r="59" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P58" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073356,280,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
       <c r="B59" s="55">
-        <f>ROW(B59) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C59" s="56" t="s">
@@ -4750,19 +4921,19 @@
         <v>111</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F59" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G59" s="56" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H59" s="56">
         <v>5</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J59" s="56">
         <v>2073357</v>
@@ -4772,11 +4943,15 @@
       <c r="M59" s="58"/>
       <c r="N59" s="58"/>
       <c r="O59" s="23"/>
-    </row>
-    <row r="60" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P59" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073357,200,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
       <c r="B60" s="49">
-        <f>ROW(B60) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -4786,19 +4961,19 @@
         <v>111</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G60" s="51" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H60" s="51">
         <v>1</v>
       </c>
       <c r="I60" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J60" s="51">
         <v>2073513</v>
@@ -4808,11 +4983,15 @@
       <c r="M60" s="53"/>
       <c r="N60" s="53"/>
       <c r="O60" s="22"/>
-    </row>
-    <row r="61" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073513,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="32"/>
       <c r="B61" s="55">
-        <f>ROW(B61) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C61" s="56" t="s">
@@ -4822,19 +5001,19 @@
         <v>111</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F61" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G61" s="56" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H61" s="56">
         <v>5</v>
       </c>
       <c r="I61" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J61" s="56">
         <v>2073513</v>
@@ -4844,11 +5023,15 @@
       <c r="M61" s="58"/>
       <c r="N61" s="58"/>
       <c r="O61" s="23"/>
-    </row>
-    <row r="62" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073513,200,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" s="49">
-        <f>ROW(B62) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -4858,19 +5041,19 @@
         <v>111</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G62" s="51" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H62" s="51">
         <v>6</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J62" s="51">
         <v>2073509</v>
@@ -4880,11 +5063,15 @@
       <c r="M62" s="53"/>
       <c r="N62" s="53"/>
       <c r="O62" s="22"/>
-    </row>
-    <row r="63" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073509,240,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="32"/>
       <c r="B63" s="55">
-        <f>ROW(B63) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="C63" s="56" t="s">
@@ -4894,19 +5081,19 @@
         <v>111</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F63" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G63" s="56" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H63" s="56">
         <v>4</v>
       </c>
       <c r="I63" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J63" s="56">
         <v>2073510</v>
@@ -4916,11 +5103,15 @@
       <c r="M63" s="58"/>
       <c r="N63" s="58"/>
       <c r="O63" s="23"/>
-    </row>
-    <row r="64" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P63" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073510,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
       <c r="B64" s="49">
-        <f>ROW(B64) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -4930,19 +5121,19 @@
         <v>111</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H64" s="51">
         <v>3</v>
       </c>
       <c r="I64" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J64" s="51">
         <v>2073510</v>
@@ -4952,11 +5143,15 @@
       <c r="M64" s="53"/>
       <c r="N64" s="53"/>
       <c r="O64" s="22"/>
-    </row>
-    <row r="65" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P64" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073510,120,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="32"/>
       <c r="B65" s="55">
-        <f>ROW(B65) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="C65" s="56" t="s">
@@ -4966,19 +5161,19 @@
         <v>112</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F65" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G65" s="56" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H65" s="56">
         <v>6</v>
       </c>
       <c r="I65" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J65" s="56">
         <v>1652854</v>
@@ -4988,11 +5183,15 @@
       <c r="M65" s="58"/>
       <c r="N65" s="58"/>
       <c r="O65" s="23"/>
-    </row>
-    <row r="66" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P65" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1652854,240,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" s="49">
-        <f>ROW(B66) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -5002,19 +5201,19 @@
         <v>112</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H66" s="51">
         <v>4</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J66" s="51">
         <v>1469817</v>
@@ -5024,11 +5223,15 @@
       <c r="M66" s="53"/>
       <c r="N66" s="53"/>
       <c r="O66" s="22"/>
-    </row>
-    <row r="67" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P66" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1469817,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
       <c r="B67" s="55">
-        <f>ROW(B67) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C67" s="56" t="s">
@@ -5038,19 +5241,19 @@
         <v>112</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F67" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G67" s="56" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H67" s="56">
         <v>1</v>
       </c>
       <c r="I67" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J67" s="56">
         <v>2616585</v>
@@ -5060,11 +5263,15 @@
       <c r="M67" s="58"/>
       <c r="N67" s="58"/>
       <c r="O67" s="23"/>
-    </row>
-    <row r="68" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P67" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2616585,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" s="49">
-        <f>ROW(B68) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C68" s="50" t="s">
@@ -5074,19 +5281,19 @@
         <v>111</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H68" s="51">
         <v>2</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J68" s="51">
         <v>2073874</v>
@@ -5096,11 +5303,15 @@
       <c r="M68" s="53"/>
       <c r="N68" s="53"/>
       <c r="O68" s="22"/>
-    </row>
-    <row r="69" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2073874,80,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="32"/>
       <c r="B69" s="55">
-        <f>ROW(B69) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="C69" s="56" t="s">
@@ -5110,19 +5321,19 @@
         <v>94</v>
       </c>
       <c r="E69" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F69" s="56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G69" s="56" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H69" s="56">
         <v>1</v>
       </c>
       <c r="I69" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J69" s="56">
         <v>2330389</v>
@@ -5132,11 +5343,15 @@
       <c r="M69" s="58"/>
       <c r="N69" s="58"/>
       <c r="O69" s="23"/>
-    </row>
-    <row r="70" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P69" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2330389,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" s="49">
-        <f>ROW(B70) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="C70" s="50" t="s">
@@ -5146,22 +5361,22 @@
         <v>102</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F70" s="51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H70" s="51">
         <v>4</v>
       </c>
       <c r="I70" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="J70" s="85" t="s">
         <v>283</v>
-      </c>
-      <c r="J70" s="51" t="s">
-        <v>293</v>
       </c>
       <c r="K70" s="52"/>
       <c r="L70" s="52"/>
@@ -5169,10 +5384,10 @@
       <c r="N70" s="53"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="32"/>
       <c r="B71" s="55">
-        <f>ROW(B71) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="C71" s="56" t="s">
@@ -5182,19 +5397,19 @@
         <v>113</v>
       </c>
       <c r="E71" s="56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F71" s="56" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H71" s="56">
         <v>1</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J71" s="56">
         <v>2420054</v>
@@ -5204,11 +5419,15 @@
       <c r="M71" s="58"/>
       <c r="N71" s="58"/>
       <c r="O71" s="23"/>
-    </row>
-    <row r="72" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P71" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2420054,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" s="49">
-        <f>ROW(B72) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="C72" s="50" t="s">
@@ -5218,19 +5437,19 @@
         <v>114</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F72" s="51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H72" s="51">
         <v>1</v>
       </c>
       <c r="I72" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J72" s="51">
         <v>2295989</v>
@@ -5240,11 +5459,15 @@
       <c r="M72" s="53"/>
       <c r="N72" s="53"/>
       <c r="O72" s="22"/>
-    </row>
-    <row r="73" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>2295989,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="32"/>
       <c r="B73" s="55">
-        <f>ROW(B73) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="C73" s="56" t="s">
@@ -5254,19 +5477,19 @@
         <v>115</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F73" s="56" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G73" s="56" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H73" s="56">
         <v>4</v>
       </c>
       <c r="I73" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J73" s="56">
         <v>1269406</v>
@@ -5276,11 +5499,15 @@
       <c r="M73" s="58"/>
       <c r="N73" s="58"/>
       <c r="O73" s="23"/>
-    </row>
-    <row r="74" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1269406,160,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
       <c r="B74" s="49">
-        <f>ROW(B74) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C74" s="50" t="s">
@@ -5290,22 +5517,22 @@
         <v>116</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H74" s="51">
         <v>1</v>
       </c>
-      <c r="I74" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="J74" s="51" t="s">
-        <v>294</v>
+      <c r="I74" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="J74" s="85" t="s">
+        <v>284</v>
       </c>
       <c r="K74" s="52"/>
       <c r="L74" s="52"/>
@@ -5313,10 +5540,10 @@
       <c r="N74" s="53"/>
       <c r="O74" s="22"/>
     </row>
-    <row r="75" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" s="55">
-        <f>ROW(B75) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C75" s="56" t="s">
@@ -5326,19 +5553,19 @@
         <v>101</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F75" s="56" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G75" s="56" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H75" s="56">
         <v>1</v>
       </c>
       <c r="I75" s="56" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J75" s="56">
         <v>2508370</v>
@@ -5348,11 +5575,15 @@
       <c r="M75" s="58"/>
       <c r="N75" s="58"/>
       <c r="O75" s="23"/>
-    </row>
-    <row r="76" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P75" s="54" t="str">
+        <f t="shared" ref="P75:P78" si="3">J75&amp;","&amp;H75*40&amp;",Koruza,Koruza"</f>
+        <v>2508370,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" s="49">
-        <f>ROW(B76) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C76" s="50" t="s">
@@ -5362,19 +5593,19 @@
         <v>114</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F76" s="51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H76" s="51">
         <v>1</v>
       </c>
       <c r="I76" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J76" s="51">
         <v>1097566</v>
@@ -5384,11 +5615,15 @@
       <c r="M76" s="53"/>
       <c r="N76" s="53"/>
       <c r="O76" s="22"/>
-    </row>
-    <row r="77" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P76" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v>1097566,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="55">
-        <f>ROW(B77) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C77" s="56" t="s">
@@ -5398,22 +5633,22 @@
         <v>102</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F77" s="56" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G77" s="56" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H77" s="56">
         <v>1</v>
       </c>
       <c r="I77" s="56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J77" s="56" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K77" s="57"/>
       <c r="L77" s="57"/>
@@ -5421,10 +5656,10 @@
       <c r="N77" s="58"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" spans="1:15" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
       <c r="B78" s="49">
-        <f>ROW(B78) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C78" s="50" t="s">
@@ -5434,19 +5669,19 @@
         <v>117</v>
       </c>
       <c r="E78" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F78" s="51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H78" s="51">
         <v>1</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J78" s="51">
         <v>1611821</v>
@@ -5456,8 +5691,12 @@
       <c r="M78" s="53"/>
       <c r="N78" s="53"/>
       <c r="O78" s="22"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v>1611821,40,Koruza,Koruza</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="32"/>
       <c r="B79" s="59"/>
       <c r="C79" s="17"/>
@@ -5467,7 +5706,7 @@
       <c r="G79" s="18"/>
       <c r="H79" s="61">
         <f>SUM(H10:H78)</f>
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="62"/>
@@ -5483,12 +5722,12 @@
       </c>
       <c r="O79" s="24"/>
     </row>
-    <row r="80" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="68"/>
+      <c r="C80" s="86"/>
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
       <c r="F80" s="28" t="s">
@@ -5514,7 +5753,7 @@
         <v>26</v>
       </c>
       <c r="G81" s="3"/>
-      <c r="H81" s="77" t="s">
+      <c r="H81" s="73" t="s">
         <v>34</v>
       </c>
       <c r="I81" s="26"/>
@@ -5522,12 +5761,12 @@
         <v>23</v>
       </c>
       <c r="K81" s="18"/>
-      <c r="L81" s="69">
+      <c r="L81" s="87">
         <f>N79</f>
         <v>0</v>
       </c>
-      <c r="M81" s="70"/>
-      <c r="N81" s="78" t="s">
+      <c r="M81" s="88"/>
+      <c r="N81" s="74" t="s">
         <v>35</v>
       </c>
       <c r="O81" s="21"/>
@@ -5546,12 +5785,12 @@
         <v>25</v>
       </c>
       <c r="K82" s="3"/>
-      <c r="L82" s="71">
+      <c r="L82" s="89">
         <f>L81/H81</f>
         <v>0</v>
       </c>
-      <c r="M82" s="71"/>
-      <c r="N82" s="79" t="s">
+      <c r="M82" s="89"/>
+      <c r="N82" s="75" t="s">
         <v>35</v>
       </c>
       <c r="O82" s="21"/>
@@ -5962,15 +6201,15 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>301</v>
+      <c r="B1" s="76" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="77" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5978,7 +6217,7 @@
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="78" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5986,7 +6225,7 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5994,31 +6233,31 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>301</v>
+      <c r="B5" s="78" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>302</v>
+      <c r="B6" s="77" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>303</v>
+      <c r="B7" s="78" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="77" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6026,7 +6265,7 @@
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="78" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6034,40 +6273,40 @@
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="81" t="s">
-        <v>304</v>
+      <c r="B10" s="77" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>305</v>
+      <c r="B11" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="81" t="s">
-        <v>306</v>
+      <c r="B12" s="77" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>305</v>
+      <c r="B13" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="81" t="s">
-        <v>307</v>
+      <c r="B14" s="77" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
